--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/ncar_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/ncar_orphans_station_configuration_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN155"/>
+  <dimension ref="A1:AN154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>uadb_trhc_69038.txt</t>
+          <t>uadb_trhc_57759.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20888-0-69038</t>
+          <t>0-20888-0-57759</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>69038</t>
+          <t>57759</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>44.45</t>
+          <t>110.98</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>20131009</t>
+          <t>19820531</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>20131015</t>
+          <t>19931122</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>uadb_trhc_57759.txt</t>
+          <t>uadb_windc_25902.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-20888-0-57759</t>
+          <t>0-20888-0-25902</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>57759</t>
+          <t>25902</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>110.98</t>
+          <t>151.7</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>60.7</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>19820531</t>
+          <t>19620304</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>19931122</t>
+          <t>19630723</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>uadb_windc_25902.txt</t>
+          <t>uadb_trhc_69038.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20888-0-25902</t>
+          <t>0-20888-0-69038</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25902</t>
+          <t>69038</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>151.7</t>
+          <t>44.45</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>19620304</t>
+          <t>20131009</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>19630723</t>
+          <t>20131015</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>uadb_trhc_58825.txt</t>
+          <t>uadb_trhc_35756.txt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-20888-0-58825</t>
+          <t>0-20888-0-35756</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>58825</t>
+          <t>35756</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3849,12 +3849,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>117.6,117.47</t>
+          <t>64.67</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>26.3,26.73</t>
+          <t>46.88</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>19710417</t>
+          <t>19760310</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19750217</t>
+          <t>19930911</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3994,17 +3994,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>uadb_windc_25705.txt</t>
+          <t>uadb_trhc_58825.txt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-20777-0-25705</t>
+          <t>0-20888-0-58825</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25705</t>
+          <t>58825</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[151.0, 151.0]</t>
+          <t>117.6,117.47</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>[62.5, 62.5]</t>
+          <t>26.3,26.73</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>19620326</t>
+          <t>19710417</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19630707</t>
+          <t>19750217</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uadb_trhc_35756.txt</t>
+          <t>uadb_trhc_89595.txt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-20888-0-35756</t>
+          <t>0-20888-0-89595</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>35756</t>
+          <t>89595</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>64.67</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>46.88</t>
+          <t>-72.13</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>19760310</t>
+          <t>19570630</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19930911</t>
+          <t>19571119</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4390,17 +4390,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>uadb_trhc_89595.txt</t>
+          <t>uadb_windc_25705.txt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-20888-0-89595</t>
+          <t>0-20777-0-25705</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>89595</t>
+          <t>25705</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>[151.0, 151.0]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-72.13</t>
+          <t>[62.5, 62.5]</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4458,12 +4458,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>19570630</t>
+          <t>19620326</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19571119</t>
+          <t>19630707</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>uadb_windc_30669.txt</t>
+          <t>uadb_windc_54723.txt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-20888-0-30669</t>
+          <t>0-20888-0-54723</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30669</t>
+          <t>54723</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>117.4</t>
+          <t>117.8</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>37.68</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5052,12 +5052,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>19620809</t>
+          <t>19771020</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19641231</t>
+          <t>20010707</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5182,17 +5182,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uadb_trhc_54723.txt</t>
+          <t>uadb_trhc_53276.txt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-20888-0-54723</t>
+          <t>0-20666-0-53276</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>54723</t>
+          <t>53276</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5233,16 +5233,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>117.8</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5250,12 +5242,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>19771020</t>
+          <t>19560820</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20010707</t>
+          <t>19880316</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5380,7 +5372,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>uadb_windc_54723.txt</t>
+          <t>uadb_windc_57759.txt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5390,7 +5382,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-20888-0-54723</t>
+          <t>0-20888-0-57759</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5403,7 +5395,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>54723</t>
+          <t>57759</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5433,12 +5425,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>117.8</t>
+          <t>110.98</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>37.68</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5448,12 +5440,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>19771020</t>
+          <t>19820531</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>20010707</t>
+          <t>19931122</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5578,7 +5570,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uadb_trhc_53276.txt</t>
+          <t>uadb_trhc_70267.txt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5588,7 +5580,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-20666-0-53276</t>
+          <t>0-20666-0-70267</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5601,7 +5593,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>53276</t>
+          <t>70267</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5638,12 +5630,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19910723</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19880316</t>
+          <t>19930408</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5768,17 +5760,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>uadb_trhc_70267.txt</t>
+          <t>uadb_windc_30669.txt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-20666-0-70267</t>
+          <t>0-20888-0-30669</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5791,7 +5783,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>70267</t>
+          <t>30669</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5819,8 +5811,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>117.4</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5828,12 +5828,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>19910723</t>
+          <t>19620809</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19930408</t>
+          <t>19641231</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>uadb_windc_57759.txt</t>
+          <t>uadb_trhc_54723.txt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-20888-0-57759</t>
+          <t>0-20888-0-54723</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>57759</t>
+          <t>54723</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>110.98</t>
+          <t>117.8</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>27.35</t>
+          <t>37.68</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>19820531</t>
+          <t>19771020</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19931122</t>
+          <t>20010707</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>uadb_windc_15300.txt</t>
+          <t>uadb_windc_30565.txt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-20666-0-15300</t>
+          <t>0-20888-0-30565</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15300</t>
+          <t>30565</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6595,8 +6595,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>116.52</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -6604,12 +6612,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>19760204</t>
+          <t>19760402</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19860516</t>
+          <t>19950228</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -6734,7 +6742,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>uadb_trhc_53745.txt</t>
+          <t>uadb_trhc_57666.txt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6744,7 +6752,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-20888-0-53745</t>
+          <t>0-20888-0-57666</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6757,7 +6765,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>53745</t>
+          <t>57666</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6787,12 +6795,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>109.58</t>
+          <t>111.73,111.75</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>37.47</t>
+          <t>28.48,28.47</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6802,12 +6810,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>19790202</t>
+          <t>19790131</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>20020119</t>
+          <t>19910308</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6932,17 +6940,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>uadb_trhc_57666.txt</t>
+          <t>uadb_windc_54326.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-20888-0-57666</t>
+          <t>0-20666-0-54326</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6955,7 +6963,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>57666</t>
+          <t>54326</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6983,16 +6991,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>111.73,111.75</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>28.48,28.47</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7000,12 +7000,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>19790131</t>
+          <t>19590921</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19910308</t>
+          <t>19900809</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7320,17 +7320,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>uadb_trhc_30676.txt</t>
+          <t>uadb_trhc_23338.txt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-20888-0-30676</t>
+          <t>0-20666-0-23338</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30676</t>
+          <t>23338</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7371,16 +7371,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>119.68</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>53.38</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7388,12 +7380,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>19530303</t>
+          <t>19760419</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>19570616</t>
+          <t>20000220</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7518,17 +7510,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>uadb_windc_30565.txt</t>
+          <t>uadb_windc_15300.txt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-20888-0-30565</t>
+          <t>0-20666-0-15300</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7541,7 +7533,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30565</t>
+          <t>15300</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7569,16 +7561,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>116.52</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>54.45</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7586,12 +7570,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>19760402</t>
+          <t>19760204</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19950228</t>
+          <t>19860516</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7716,17 +7700,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>uadb_trhc_23338.txt</t>
+          <t>uadb_windc_36622.txt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-20666-0-23338</t>
+          <t>0-20888-0-36622</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7739,7 +7723,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23338</t>
+          <t>36622</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7767,8 +7751,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>80.7</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -7776,12 +7768,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>19760419</t>
+          <t>19661202</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>20000220</t>
+          <t>19680512</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7906,17 +7898,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>uadb_trhc_91902.txt</t>
+          <t>uadb_trhc_30700.txt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-20777-0-91902</t>
+          <t>0-20888-0-30700</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7929,7 +7921,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>91902</t>
+          <t>30700</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7959,12 +7951,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[-154.6, -154.6]</t>
+          <t>100.35</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>[-4.0, -4.0]</t>
+          <t>52.17</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -7974,12 +7966,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>19620320</t>
+          <t>19760620</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19620711</t>
+          <t>20020824</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -8104,7 +8096,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>uadb_windc_57666.txt</t>
+          <t>uadb_trhc_30676.txt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8114,7 +8106,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-20888-0-57666</t>
+          <t>0-20888-0-30676</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8127,7 +8119,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>57666</t>
+          <t>30676</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8157,12 +8149,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>111.73,111.75</t>
+          <t>119.68</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>28.48,28.47</t>
+          <t>53.38</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8172,12 +8164,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>19790203</t>
+          <t>19530303</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19910308</t>
+          <t>19570616</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8302,7 +8294,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>uadb_trhc_30700.txt</t>
+          <t>uadb_trhc_53745.txt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8312,7 +8304,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-20888-0-30700</t>
+          <t>0-20888-0-53745</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8325,7 +8317,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30700</t>
+          <t>53745</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8355,12 +8347,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>100.35</t>
+          <t>109.58</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>52.17</t>
+          <t>37.47</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8370,12 +8362,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>19760620</t>
+          <t>19790202</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>20020824</t>
+          <t>20020119</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -8500,17 +8492,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>uadb_windc_62336.txt</t>
+          <t>uadb_windc_57666.txt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-20777-0-62336</t>
+          <t>0-20888-0-57666</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8523,7 +8515,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>62336</t>
+          <t>57666</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8553,12 +8545,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[33.8, 33.8]</t>
+          <t>111.73,111.75</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>[32.0, 32.0]</t>
+          <t>28.48,28.47</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8568,12 +8560,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>19630705</t>
+          <t>19790203</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19650317</t>
+          <t>19910308</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8698,17 +8690,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>uadb_windc_36622.txt</t>
+          <t>uadb_trhc_54237.txt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-20888-0-36622</t>
+          <t>0-20666-0-54237</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8721,7 +8713,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>36622</t>
+          <t>54237</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8749,16 +8741,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>80.7</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -8766,12 +8750,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>19661202</t>
+          <t>19660110</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19680512</t>
+          <t>19880512</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8896,17 +8880,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>uadb_trhc_54237.txt</t>
+          <t>uadb_trhc_97120.txt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-20666-0-54237</t>
+          <t>0-20777-0-97120</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8919,7 +8903,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>54237</t>
+          <t>97120</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8947,8 +8931,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>[119.0, 119.0]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[-2.5, -2.5]</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -8956,12 +8948,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>19660110</t>
+          <t>20090326</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19880512</t>
+          <t>20110104</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -9086,17 +9078,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>uadb_windc_54326.txt</t>
+          <t>uadb_windc_56856.txt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-20666-0-54326</t>
+          <t>0-20888-0-56856</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9109,7 +9101,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>54326</t>
+          <t>56856</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9137,8 +9129,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>100.9</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9146,12 +9146,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>19590921</t>
+          <t>19580116</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19900809</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9276,17 +9276,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>uadb_windc_56856.txt</t>
+          <t>uadb_windc_62336.txt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-20888-0-56856</t>
+          <t>0-20777-0-62336</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>56856</t>
+          <t>62336</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>100.9</t>
+          <t>[33.8, 33.8]</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>[32.0, 32.0]</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>19580116</t>
+          <t>19630705</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19650317</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9474,17 +9474,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>uadb_windc_30858.txt</t>
+          <t>uadb_trhc_91902.txt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-20888-0-30858</t>
+          <t>0-20777-0-91902</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30858</t>
+          <t>91902</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9527,12 +9527,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>113.72</t>
+          <t>[-154.6, -154.6]</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>[-4.0, -4.0]</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9542,12 +9542,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>19760714</t>
+          <t>19620320</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20011203</t>
+          <t>19620711</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9672,17 +9672,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>uadb_trhc_53083.txt</t>
+          <t>uadb_windc_63676.txt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-20666-0-53083</t>
+          <t>0-20888-0-63676</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>53083</t>
+          <t>63676</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9723,8 +9723,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -9732,12 +9740,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>19710120</t>
+          <t>19570802</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20000221</t>
+          <t>19661023</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9862,7 +9870,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>uadb_trhc_97120.txt</t>
+          <t>uadb_trhc_97460.txt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9872,7 +9880,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-20777-0-97120</t>
+          <t>0-20777-0-97460</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9885,7 +9893,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>97120</t>
+          <t>97460</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9915,12 +9923,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[119.0, 119.0]</t>
+          <t>[124.55, 124.55]</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>[-2.5, -2.5]</t>
+          <t>[-1.62, -1.62]</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10060,7 +10068,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>uadb_windc_54266.txt</t>
+          <t>uadb_windc_30858.txt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10070,7 +10078,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-20888-0-54266</t>
+          <t>0-20888-0-30858</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10083,7 +10091,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>54266</t>
+          <t>30858</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -10113,12 +10121,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>125.63</t>
+          <t>113.72</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>42.52</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10128,12 +10136,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>19591006</t>
+          <t>19760714</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>19591229</t>
+          <t>20011203</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10258,7 +10266,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>uadb_windc_53446.txt</t>
+          <t>uadb_trhc_30858.txt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10268,7 +10276,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-20888-0-53446</t>
+          <t>0-20888-0-30858</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10281,7 +10289,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>53446</t>
+          <t>30858</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10311,12 +10319,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>109.83</t>
+          <t>113.72</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>40.57</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10326,12 +10334,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19760714</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>20011203</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10456,7 +10464,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>uadb_windc_63676.txt</t>
+          <t>uadb_windc_53446.txt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10466,7 +10474,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-20888-0-63676</t>
+          <t>0-20888-0-53446</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10479,7 +10487,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>63676</t>
+          <t>53446</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10509,12 +10517,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>30.28</t>
+          <t>109.83</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>40.57</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10524,12 +10532,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>19570802</t>
+          <t>19560820</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>19661023</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10654,17 +10662,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>uadb_trhc_30858.txt</t>
+          <t>uadb_trhc_53083.txt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-20888-0-30858</t>
+          <t>0-20666-0-53083</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10677,7 +10685,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30858</t>
+          <t>53083</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10705,16 +10713,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>113.72</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -10722,12 +10722,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>19760714</t>
+          <t>19710120</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>20011203</t>
+          <t>20000221</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -10852,17 +10852,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>uadb_trhc_97460.txt</t>
+          <t>uadb_windc_54266.txt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-20777-0-97460</t>
+          <t>0-20888-0-54266</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>97460</t>
+          <t>54266</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10905,12 +10905,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[124.55, 124.55]</t>
+          <t>125.63</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>[-1.62, -1.62]</t>
+          <t>42.52</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10920,12 +10920,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>20090326</t>
+          <t>19591006</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20110104</t>
+          <t>19591229</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>uadb_windc_60646.txt</t>
+          <t>uadb_trhc_30565.txt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-20888-0-60646</t>
+          <t>0-20888-0-30565</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>60646</t>
+          <t>30565</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11499,12 +11499,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>116.52</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>54.45</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>19630101</t>
+          <t>19760402</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>19630930</t>
+          <t>19950228</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>uadb_windc_58647.txt</t>
+          <t>uadb_windc_57089.txt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-20888-0-58647</t>
+          <t>0-20888-0-57089</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>58647</t>
+          <t>57089</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>119.12,119.12</t>
+          <t>113.83,113.72</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>28.1,28.08</t>
+          <t>34.02,34.03</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>19830822</t>
+          <t>19930626</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>uadb_windc_57089.txt</t>
+          <t>uadb_windc_60646.txt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-20888-0-57089</t>
+          <t>0-20888-0-60646</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>57089</t>
+          <t>60646</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11895,12 +11895,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>113.83,113.72</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>34.02,34.03</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11910,12 +11910,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>19560821</t>
+          <t>19630101</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>19930626</t>
+          <t>19630930</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -12040,17 +12040,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>uadb_windc_57206.txt</t>
+          <t>uadb_windc_23338.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-20888-0-57206</t>
+          <t>0-20666-0-23338</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>57206</t>
+          <t>23338</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -12091,16 +12091,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>105.8</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12108,12 +12100,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19760419</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>20000220</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -12238,7 +12230,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>uadb_windc_54449.txt</t>
+          <t>uadb_windc_58852.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12248,7 +12240,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-20888-0-54449</t>
+          <t>0-20888-0-58852</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -12261,7 +12253,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>54449</t>
+          <t>58852</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -12291,12 +12283,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>119.73</t>
+          <t>120.38</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>26.93</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -12306,7 +12298,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>19571201</t>
+          <t>19570602</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -12436,7 +12428,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>uadb_trhc_30565.txt</t>
+          <t>uadb_windc_58647.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12446,7 +12438,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-20888-0-30565</t>
+          <t>0-20888-0-58647</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12459,7 +12451,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30565</t>
+          <t>58647</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -12489,12 +12481,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>116.52</t>
+          <t>119.12,119.12</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>54.45</t>
+          <t>28.1,28.08</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -12504,12 +12496,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>19760402</t>
+          <t>19560821</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>19950228</t>
+          <t>19830822</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -12634,17 +12626,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>uadb_windc_23338.txt</t>
+          <t>uadb_windc_53745.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-20666-0-23338</t>
+          <t>0-20888-0-53745</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12657,7 +12649,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23338</t>
+          <t>53745</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12685,8 +12677,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>109.58</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -12694,12 +12694,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>19760419</t>
+          <t>19790225</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20000220</t>
+          <t>20020119</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>uadb_trhc_61900.txt</t>
+          <t>uadb_windc_54449.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13032,7 +13032,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-20888-0-61900</t>
+          <t>0-20888-0-54449</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>61900</t>
+          <t>54449</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -13075,12 +13075,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-14.730000000000018</t>
+          <t>119.73</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>-7.97</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -13090,12 +13090,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>19431005</t>
+          <t>19571201</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>19460228</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>uadb_windc_58852.txt</t>
+          <t>uadb_windc_58626.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-20888-0-58852</t>
+          <t>0-20888-0-58626</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>58852</t>
+          <t>58626</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -13273,12 +13273,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>120.38</t>
+          <t>117.1</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>26.93</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -13288,12 +13288,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>19570602</t>
+          <t>19560820</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>19580824</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>uadb_windc_53745.txt</t>
+          <t>uadb_trhc_61900.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-20888-0-53745</t>
+          <t>0-20888-0-61900</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>53745</t>
+          <t>61900</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>109.58</t>
+          <t>-14.730000000000018</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>37.47</t>
+          <t>-7.97</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>19790225</t>
+          <t>19431005</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>20020119</t>
+          <t>19460228</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -13814,17 +13814,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>uadb_windc_58626.txt</t>
+          <t>uadb_trhc_55664.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-20888-0-58626</t>
+          <t>0-20666-0-55664</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>58626</t>
+          <t>55664</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -13865,16 +13865,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>117.1</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -13882,12 +13874,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19820519</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>19580824</t>
+          <t>20000403</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -14012,7 +14004,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>uadb_trhc_55664.txt</t>
+          <t>uadb_windc_67666.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14022,7 +14014,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-20666-0-55664</t>
+          <t>0-20666-0-67666</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -14035,7 +14027,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>55664</t>
+          <t>67666</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -14072,12 +14064,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>19820519</t>
+          <t>19850702</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>20000403</t>
+          <t>20021226</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -14202,7 +14194,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>uadb_windc_67666.txt</t>
+          <t>uadb_trhc_78718.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14212,7 +14204,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-20666-0-67666</t>
+          <t>0-20666-0-78718</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -14225,7 +14217,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>67666</t>
+          <t>78718</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -14262,12 +14254,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>19850702</t>
+          <t>20000623</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>20021226</t>
+          <t>20061220</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -14590,7 +14582,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>uadb_trhc_78718.txt</t>
+          <t>uadb_windc_51711.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14600,7 +14592,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-20666-0-78718</t>
+          <t>0-20666-0-51711</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14613,7 +14605,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>78718</t>
+          <t>51711</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -14650,12 +14642,12 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>20000623</t>
+          <t>19650807</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>20061220</t>
+          <t>19980717</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -14978,17 +14970,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>uadb_windc_51711.txt</t>
+          <t>uadb_trhc_48381.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-20666-0-51711</t>
+          <t>0-20777-0-48381</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -15001,7 +14993,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>51711</t>
+          <t>48381</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -15029,8 +15021,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[102.47, 102.47]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[16.28, 16.28]</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -15038,12 +15038,12 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>19650807</t>
+          <t>20201209</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19980717</t>
+          <t>20231230</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>uadb_trhc_48381.txt</t>
+          <t>uadb_windc_48381.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>20201209</t>
+          <t>20180115</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -15366,17 +15366,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>uadb_windc_56247.txt</t>
+          <t>uadb_trhc_91764.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-20666-0-56247</t>
+          <t>0-20777-0-91764</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>56247</t>
+          <t>91764</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -15417,8 +15417,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[-170.4, -170.4]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[14.2, 14.2]</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -15426,12 +15434,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>19581211</t>
+          <t>19620415</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>20020929</t>
+          <t>19620729</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -15556,17 +15564,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>uadb_windc_48381.txt</t>
+          <t>uadb_windc_56247.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-20777-0-48381</t>
+          <t>0-20666-0-56247</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -15579,7 +15587,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>48381</t>
+          <t>56247</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -15607,16 +15615,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[102.47, 102.47]</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>[16.28, 16.28]</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -15624,12 +15624,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>20180115</t>
+          <t>19581211</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>20231230</t>
+          <t>20020929</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -15754,17 +15754,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>uadb_trhc_91764.txt</t>
+          <t>uadb_windc_55664.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-20777-0-91764</t>
+          <t>0-20666-0-55664</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>91764</t>
+          <t>55664</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -15805,16 +15805,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[-170.4, -170.4]</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>[14.2, 14.2]</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -15822,12 +15814,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>19620415</t>
+          <t>19590301</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19620729</t>
+          <t>20000403</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -15952,17 +15944,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>uadb_windc_55664.txt</t>
+          <t>uadb_windc_30676.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-20666-0-55664</t>
+          <t>0-20888-0-30676</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -15975,7 +15967,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>55664</t>
+          <t>30676</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -16003,8 +15995,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>119.68</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -16012,12 +16012,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>19590301</t>
+          <t>19530303</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20000403</t>
+          <t>19570616</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>uadb_windc_55279.txt</t>
+          <t>uadb_trhc_3649.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-20666-0-55279</t>
+          <t>0-20666-0-3649</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -16165,7 +16165,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>55279</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -16202,12 +16202,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>19561001</t>
+          <t>20000630</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>20010926</t>
+          <t>20060324</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>uadb_windc_56172.txt</t>
+          <t>uadb_windc_54836.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-20666-0-56172</t>
+          <t>0-20666-0-54836</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -16355,7 +16355,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>56172</t>
+          <t>54836</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>19560901</t>
+          <t>19580701</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -16522,17 +16522,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>uadb_trhc_99877.txt</t>
+          <t>uadb_windc_56172.txt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-20888-0-99877</t>
+          <t>0-20666-0-56172</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>99877</t>
+          <t>56172</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -16573,16 +16573,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>67.27</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>34.23</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -16590,12 +16582,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>20040630</t>
+          <t>19560901</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>20091206</t>
+          <t>19871231</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -16720,7 +16712,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>uadb_windc_30676.txt</t>
+          <t>uadb_trhc_99877.txt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16730,7 +16722,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-20888-0-30676</t>
+          <t>0-20888-0-99877</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -16743,7 +16735,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30676</t>
+          <t>99877</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -16773,12 +16765,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>119.68</t>
+          <t>67.27</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>53.38</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -16788,12 +16780,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>19530303</t>
+          <t>20040630</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19570616</t>
+          <t>20091206</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -16918,7 +16910,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>uadb_windc_57606.txt</t>
+          <t>uadb_windc_55279.txt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -16928,7 +16920,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-20666-0-57606</t>
+          <t>0-20666-0-55279</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -16941,7 +16933,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>57606</t>
+          <t>55279</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -16978,12 +16970,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>19580712</t>
+          <t>19561001</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20000624</t>
+          <t>20010926</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -17108,7 +17100,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>uadb_trhc_3649.txt</t>
+          <t>uadb_windc_57606.txt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17118,7 +17110,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-20666-0-3649</t>
+          <t>0-20666-0-57606</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -17131,7 +17123,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>57606</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -17168,12 +17160,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>20000630</t>
+          <t>19580712</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20060324</t>
+          <t>20000624</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -17298,17 +17290,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>uadb_windc_53231.txt</t>
+          <t>uadb_windc_58737.txt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-20666-0-53231</t>
+          <t>0-20888-0-58737</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -17321,7 +17313,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>53231</t>
+          <t>58737</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -17349,8 +17341,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>118.32</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -17358,12 +17358,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>19580101</t>
+          <t>19570601</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>20040904</t>
+          <t>19591231</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>uadb_windc_54836.txt</t>
+          <t>uadb_windc_51232.txt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-20666-0-54836</t>
+          <t>0-20666-0-51232</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>54836</t>
+          <t>51232</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -17548,12 +17548,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>19580701</t>
+          <t>19580415</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19871231</t>
+          <t>20000403</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>uadb_windc_51232.txt</t>
+          <t>uadb_windc_53231.txt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-20666-0-51232</t>
+          <t>0-20666-0-53231</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>51232</t>
+          <t>53231</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -17738,12 +17738,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>19580415</t>
+          <t>19580101</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>20000403</t>
+          <t>20040904</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -17868,17 +17868,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>uadb_windc_58737.txt</t>
+          <t>uadb_trhc_80444.txt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-20888-0-58737</t>
+          <t>0-20666-0-80444</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>58737</t>
+          <t>80444</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -17919,16 +17919,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>118.32</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -17936,12 +17928,12 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>19570601</t>
+          <t>19751019</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19591231</t>
+          <t>20110825</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -18066,17 +18058,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>uadb_trhc_67666.txt</t>
+          <t>uadb_trhc_68240.txt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-20666-0-67666</t>
+          <t>0-20777-0-68240</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -18089,7 +18081,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>67666</t>
+          <t>68240</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -18117,8 +18109,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>[25.92, 25.92]</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[-24.22, -24.22]</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -18126,12 +18126,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>19850702</t>
+          <t>19850701</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20021226</t>
+          <t>20120322</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>uadb_windc_56374.txt</t>
+          <t>uadb_windc_51886.txt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-20666-0-56374</t>
+          <t>0-20666-0-51886</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>56374</t>
+          <t>51886</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -18316,12 +18316,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>19560821</t>
+          <t>19650808</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>20010508</t>
+          <t>20020929</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>uadb_trhc_80444.txt</t>
+          <t>uadb_trhc_67666.txt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18456,7 +18456,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0-20666-0-80444</t>
+          <t>0-20666-0-67666</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>80444</t>
+          <t>67666</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -18506,12 +18506,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>19751019</t>
+          <t>19850702</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>20110825</t>
+          <t>20021226</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>uadb_trhc_63705.txt</t>
+          <t>uadb_windc_56374.txt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0-20666-0-63705</t>
+          <t>0-20666-0-56374</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>63705</t>
+          <t>56374</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -18696,12 +18696,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>19590219</t>
+          <t>19560821</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>20181023</t>
+          <t>20010508</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -18826,17 +18826,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>uadb_windc_51886.txt</t>
+          <t>uadb_windc_68240.txt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0-20666-0-51886</t>
+          <t>0-20777-0-68240</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>51886</t>
+          <t>68240</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -18877,8 +18877,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>[25.92, 25.92]</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>[-24.22, -24.22]</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -18886,12 +18894,12 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>19650808</t>
+          <t>19850629</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>20020929</t>
+          <t>20111023</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -19016,17 +19024,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>uadb_trhc_57541.txt</t>
+          <t>uadb_windc_3649.txt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0-20888-0-57541</t>
+          <t>0-20666-0-3649</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -19039,7 +19047,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>57541</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -19067,16 +19075,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>109.47</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>29.99</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -19084,12 +19084,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>20220701</t>
+          <t>20000630</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20060202</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -19214,17 +19214,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>uadb_trhc_68240.txt</t>
+          <t>uadb_trhc_69110.txt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0-20777-0-68240</t>
+          <t>0-20666-0-69110</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>68240</t>
+          <t>69110</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -19265,16 +19265,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>[25.92, 25.92]</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>[-24.22, -24.22]</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -19282,12 +19274,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>19850701</t>
+          <t>20090806</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>20120322</t>
+          <t>20140406</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -19412,17 +19404,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>uadb_trhc_74547.txt</t>
+          <t>uadb_windc_63705.txt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ORPHAN</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0-20888-0-74547</t>
+          <t>0-20666-0-63705</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -19435,7 +19427,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>74547</t>
+          <t>63705</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -19463,16 +19455,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>-97.3</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>38.62</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -19480,12 +19464,12 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>19970402</t>
+          <t>19570701</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20020615</t>
+          <t>20181023</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -19610,17 +19594,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>uadb_windc_68240.txt</t>
+          <t>uadb_windc_69110.txt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0-20777-0-68240</t>
+          <t>0-20666-0-69110</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -19633,7 +19617,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>68240</t>
+          <t>69110</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -19661,16 +19645,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>[25.92, 25.92]</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>[-24.22, -24.22]</t>
-        </is>
-      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -19678,12 +19654,12 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>19850629</t>
+          <t>20090806</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>20111023</t>
+          <t>20140406</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -19808,7 +19784,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>uadb_windc_63705.txt</t>
+          <t>uadb_windc_54237.txt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19818,7 +19794,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0-20666-0-63705</t>
+          <t>0-20666-0-54237</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -19831,7 +19807,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>63705</t>
+          <t>54237</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -19868,12 +19844,12 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>19570701</t>
+          <t>19591001</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20181023</t>
+          <t>19880512</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -19998,7 +19974,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>uadb_trhc_69110.txt</t>
+          <t>uadb_windc_42704.txt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20008,7 +19984,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0-20666-0-69110</t>
+          <t>0-20666-0-42704</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -20021,7 +19997,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>69110</t>
+          <t>42704</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -20058,12 +20034,12 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>20090806</t>
+          <t>19560208</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>20140406</t>
+          <t>19920104</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -20188,17 +20164,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>uadb_windc_69110.txt</t>
+          <t>uadb_trhc_57541.txt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0-20666-0-69110</t>
+          <t>0-20888-0-57541</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -20211,7 +20187,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>69110</t>
+          <t>57541</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -20239,8 +20215,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>109.47</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -20248,12 +20232,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>20090806</t>
+          <t>20220701</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>20140406</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -20378,7 +20362,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>uadb_windc_3649.txt</t>
+          <t>uadb_trhc_63705.txt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20388,7 +20372,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0-20666-0-3649</t>
+          <t>0-20666-0-63705</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -20401,7 +20385,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>63705</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -20438,12 +20422,12 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>20000630</t>
+          <t>19590219</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>20060202</t>
+          <t>20181023</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -20568,17 +20552,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>uadb_windc_51156.txt</t>
+          <t>uadb_trhc_74547.txt</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>ORPHAN</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0-20666-0-51156</t>
+          <t>0-20888-0-74547</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -20591,7 +20575,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>51156</t>
+          <t>74547</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -20619,8 +20603,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>-97.3</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -20628,12 +20620,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>19590101</t>
+          <t>19970402</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>20170531</t>
+          <t>20020615</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -20758,7 +20750,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>uadb_windc_42704.txt</t>
+          <t>uadb_windc_58040.txt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -20768,7 +20760,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0-20666-0-42704</t>
+          <t>0-20666-0-58040</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -20781,7 +20773,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>42704</t>
+          <t>58040</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -20818,12 +20810,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>19560208</t>
+          <t>19580101</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>19920104</t>
+          <t>19871231</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -20948,7 +20940,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>uadb_windc_58040.txt</t>
+          <t>uadb_windc_72243.txt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -20958,7 +20950,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0-20666-0-58040</t>
+          <t>0-20666-0-72243</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -20971,7 +20963,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>58040</t>
+          <t>72243</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -21008,12 +21000,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>19580101</t>
+          <t>19710816</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>19871231</t>
+          <t>19790629</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -21138,7 +21130,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>uadb_windc_3317.txt</t>
+          <t>uadb_windc_51156.txt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21148,7 +21140,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0-20666-0-3317</t>
+          <t>0-20666-0-51156</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -21161,7 +21153,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>51156</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -21198,12 +21190,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>20000301</t>
+          <t>19590101</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>20020217</t>
+          <t>20170531</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -21518,7 +21510,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>uadb_windc_54237.txt</t>
+          <t>uadb_trhc_10687.txt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21528,7 +21520,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0-20666-0-54237</t>
+          <t>0-20666-0-10687</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -21541,7 +21533,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>54237</t>
+          <t>10687</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -21578,12 +21570,12 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>19591001</t>
+          <t>19671004</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>19880512</t>
+          <t>19950803</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -21708,7 +21700,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>uadb_windc_54012.txt</t>
+          <t>uadb_windc_6235.txt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -21718,7 +21710,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0-20666-0-54012</t>
+          <t>0-20666-0-6235</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -21731,7 +21723,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>54012</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -21768,12 +21760,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>19560820</t>
+          <t>19730613</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>19880314</t>
+          <t>20141011</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -21898,7 +21890,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>uadb_windc_47772.txt</t>
+          <t>uadb_windc_54012.txt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -21908,7 +21900,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0-20666-0-47770</t>
+          <t>0-20666-0-54012</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -21921,7 +21913,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>47770</t>
+          <t>54012</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -21958,12 +21950,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>19310302</t>
+          <t>19560820</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>20020101</t>
+          <t>19880314</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -22088,7 +22080,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>uadb_trhc_3317.txt</t>
+          <t>uadb_windc_47772.txt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22098,7 +22090,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0-20666-0-3317</t>
+          <t>0-20666-0-47770</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -22111,7 +22103,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>47770</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -22148,12 +22140,12 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>20000301</t>
+          <t>19310302</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>20020217</t>
+          <t>20020101</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -22278,17 +22270,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>uadb_windc_63985.txt</t>
+          <t>uadb_windc_3317.txt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0-20777-0-63985</t>
+          <t>0-20666-0-3317</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -22301,7 +22293,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>63985</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -22329,16 +22321,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>[54.52, 54.52]</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>[-4.92, -4.92]</t>
-        </is>
-      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -22346,12 +22330,12 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>20000301</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20020217</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -22476,7 +22460,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>uadb_trhc_63985.txt</t>
+          <t>uadb_windc_63985.txt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22674,7 +22658,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>uadb_windc_6235.txt</t>
+          <t>uadb_trhc_72243.txt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -22684,7 +22668,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0-20666-0-6235</t>
+          <t>0-20666-0-72243</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -22697,7 +22681,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>72243</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -22734,12 +22718,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>19730613</t>
+          <t>19710816</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>20141011</t>
+          <t>19790629</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -23054,17 +23038,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>uadb_trhc_82107.txt</t>
+          <t>uadb_trhc_3317.txt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0-20777-0-82107</t>
+          <t>0-20666-0-3317</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -23077,7 +23061,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>82107</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -23105,16 +23089,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>[-67.05000000000001, -67.05000000000001]</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>[-1.3, -1.3]</t>
-        </is>
-      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -23122,12 +23098,12 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>20000301</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20020217</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -23252,17 +23228,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>uadb_windc_53083.txt</t>
+          <t>uadb_trhc_63985.txt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0-20666-0-53083</t>
+          <t>0-20777-0-63985</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -23275,7 +23251,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>53083</t>
+          <t>63985</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -23303,8 +23279,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>[54.52, 54.52]</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>[-4.92, -4.92]</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -23312,12 +23296,12 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>19580102</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>20000221</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -23442,7 +23426,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>uadb_windc_72243.txt</t>
+          <t>uadb_windc_53083.txt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23452,7 +23436,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0-20666-0-72243</t>
+          <t>0-20666-0-53083</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -23465,7 +23449,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>72243</t>
+          <t>53083</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -23502,12 +23486,12 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>19710816</t>
+          <t>19580102</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>19790629</t>
+          <t>20000221</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -23632,17 +23616,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>uadb_windc_35394.txt</t>
+          <t>uadb_windc_10687.txt</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0-20777-0-35394</t>
+          <t>0-20666-0-10687</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -23655,7 +23639,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>35394</t>
+          <t>10687</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -23683,16 +23667,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>[73.09, 73.09]</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>[49.48, 49.48]</t>
-        </is>
-      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -23700,12 +23676,12 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19700903</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>19950803</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -23830,7 +23806,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>uadb_trhc_35394.txt</t>
+          <t>uadb_windc_35394.txt</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24028,17 +24004,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>uadb_trhc_10687.txt</t>
+          <t>uadb_trhc_35394.txt</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0-20666-0-10687</t>
+          <t>0-20777-0-35394</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -24051,7 +24027,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10687</t>
+          <t>35394</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -24079,8 +24055,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>[73.09, 73.09]</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>[49.48, 49.48]</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -24088,12 +24072,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>19671004</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>19950803</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -24218,17 +24202,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>uadb_trhc_72243.txt</t>
+          <t>uadb_trhc_82107.txt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0-20666-0-72243</t>
+          <t>0-20777-0-82107</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -24241,7 +24225,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>72243</t>
+          <t>82107</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -24269,8 +24253,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>[-67.05000000000001, -67.05000000000001]</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>[-1.3, -1.3]</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -24278,12 +24270,12 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>19710816</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>19790629</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -24598,17 +24590,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>uadb_trhc_83566.txt</t>
+          <t>uadb_trhc_51886.txt</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0-20777-0-83566</t>
+          <t>0-20666-0-51886</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -24621,7 +24613,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>83566</t>
+          <t>51886</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -24649,16 +24641,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>[-43.579999999999984, -43.579999999999984]</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>[-19.63, -19.63]</t>
-        </is>
-      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -24666,12 +24650,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19660506</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20020929</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -24796,17 +24780,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>uadb_windc_53772.txt</t>
+          <t>uadb_trhc_83566.txt</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0-20666-0-53772</t>
+          <t>0-20777-0-83566</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -24819,7 +24803,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>53772</t>
+          <t>83566</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -24847,8 +24831,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>[-43.579999999999984, -43.579999999999984]</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>[-19.63, -19.63]</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -24861,7 +24853,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>20231230</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -24986,7 +24978,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>uadb_trhc_53772.txt</t>
+          <t>uadb_windc_53772.txt</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25176,7 +25168,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>uadb_trhc_80398.txt</t>
+          <t>uadb_windc_60769.txt</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25186,7 +25178,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0-20666-0-80398</t>
+          <t>0-20666-0-60769</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -25199,7 +25191,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>80398</t>
+          <t>60769</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -25236,12 +25228,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>19860809</t>
+          <t>19670202</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20071219</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -25366,7 +25358,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>uadb_trhc_65503.txt</t>
+          <t>uadb_trhc_80398.txt</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25376,7 +25368,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0-20666-0-65503</t>
+          <t>0-20666-0-80398</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -25389,7 +25381,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>65503</t>
+          <t>80398</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -25426,12 +25418,12 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>19730322</t>
+          <t>19860809</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>20221013</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -25556,7 +25548,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>uadb_windc_10687.txt</t>
+          <t>uadb_trhc_53772.txt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -25566,7 +25558,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0-20666-0-10687</t>
+          <t>0-20666-0-53772</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -25579,7 +25571,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10687</t>
+          <t>53772</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -25616,12 +25608,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>19700903</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>19950803</t>
+          <t>20231230</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -25746,7 +25738,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>uadb_trhc_76723.txt</t>
+          <t>uadb_trhc_65503.txt</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -25756,7 +25748,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0-20666-0-76723</t>
+          <t>0-20666-0-65503</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -25769,7 +25761,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>76723</t>
+          <t>65503</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -25806,12 +25798,12 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>19731009</t>
+          <t>19730322</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>20070704</t>
+          <t>20221013</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -25936,17 +25928,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>uadb_windc_72394.txt</t>
+          <t>uadb_windc_38341.txt</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0-20666-0-72392</t>
+          <t>0-20777-0-38341</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -25959,7 +25951,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>72392</t>
+          <t>38341</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -25987,8 +25979,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>[71.23, 71.23]</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>[42.51, 42.51]</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -25996,12 +25996,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>19460612</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>20100414</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -26126,17 +26126,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>uadb_windc_38341.txt</t>
+          <t>uadb_trhc_84008.txt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0-20777-0-38341</t>
+          <t>0-20666-0-84008</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>38341</t>
+          <t>84008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -26177,16 +26177,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>[71.23, 71.23]</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>[42.51, 42.51]</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -26194,12 +26186,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19670907</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20190204</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -26324,7 +26316,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>uadb_trhc_51886.txt</t>
+          <t>uadb_trhc_76723.txt</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -26334,7 +26326,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0-20666-0-51886</t>
+          <t>0-20666-0-76723</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -26347,7 +26339,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>51886</t>
+          <t>76723</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -26384,12 +26376,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>19660506</t>
+          <t>19731009</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>20020929</t>
+          <t>20070704</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -26514,17 +26506,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>uadb_trhc_84008.txt</t>
+          <t>uadb_trhc_38341.txt</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0-20666-0-84008</t>
+          <t>0-20777-0-38341</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -26537,7 +26529,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>84008</t>
+          <t>38341</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -26565,8 +26557,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>[71.23, 71.23]</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>[42.51, 42.51]</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -26574,12 +26574,12 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>19670907</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>20190204</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>uadb_windc_60769.txt</t>
+          <t>uadb_windc_72394.txt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -26904,7 +26904,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0-20666-0-60769</t>
+          <t>0-20666-0-72392</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>60769</t>
+          <t>72392</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -26954,12 +26954,12 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>19670202</t>
+          <t>19460612</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>20071219</t>
+          <t>20100414</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -27084,7 +27084,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>uadb_windc_65503.txt</t>
+          <t>uadb_trhc_72394.txt</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -27094,7 +27094,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0-20666-0-65503</t>
+          <t>0-20666-0-72392</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>65503</t>
+          <t>72392</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -27144,12 +27144,12 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>19630707</t>
+          <t>19460101</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>20221014</t>
+          <t>20100414</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -27274,7 +27274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>uadb_windc_1400.txt</t>
+          <t>uadb_windc_65503.txt</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -27284,7 +27284,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0-20666-0-1400</t>
+          <t>0-20666-0-65503</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>65503</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -27334,12 +27334,12 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>19940201</t>
+          <t>19630707</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20221014</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -27464,17 +27464,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>uadb_trhc_38341.txt</t>
+          <t>uadb_windc_59431.txt</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0-20777-0-38341</t>
+          <t>0-20666-0-59431</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -27487,7 +27487,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>38341</t>
+          <t>59431</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -27515,16 +27515,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>[71.23, 71.23]</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>[42.51, 42.51]</t>
-        </is>
-      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -27537,7 +27529,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20231230</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -27662,7 +27654,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>uadb_trhc_72394.txt</t>
+          <t>uadb_windc_1400.txt</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -27672,7 +27664,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0-20666-0-72392</t>
+          <t>0-20666-0-1400</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -27685,7 +27677,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>72392</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -27722,12 +27714,12 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>19460101</t>
+          <t>19940201</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>20100414</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -27852,7 +27844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>uadb_trhc_1400.txt</t>
+          <t>uadb_windc_72232.txt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -27862,7 +27854,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0-20666-0-1400</t>
+          <t>0-20666-0-72232</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -27875,7 +27867,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>72232</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -27912,12 +27904,12 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>19940201</t>
+          <t>19620303</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>19880621</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -28042,7 +28034,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>uadb_windc_72232.txt</t>
+          <t>uadb_trhc_59431.txt</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -28052,7 +28044,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0-20666-0-72232</t>
+          <t>0-20666-0-59431</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -28065,7 +28057,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>72232</t>
+          <t>59431</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -28102,12 +28094,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>19620303</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>19880621</t>
+          <t>20231230</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -28232,7 +28224,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>uadb_windc_71203.txt</t>
+          <t>uadb_trhc_1400.txt</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -28242,7 +28234,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0-20666-0-71115</t>
+          <t>0-20666-0-1400</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -28255,7 +28247,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>71115</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -28292,12 +28284,12 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>19720214</t>
+          <t>19940201</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20170630</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -28422,17 +28414,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>uadb_trhc_71203.txt</t>
+          <t>uadb_trhc_97014.txt</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0-20666-0-71115</t>
+          <t>0-20777-0-97014</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -28445,7 +28437,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>71115</t>
+          <t>97014</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -28473,8 +28465,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>[122.92, 122.92]</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>[1.53, 1.53]</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -28482,12 +28482,12 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>19720214</t>
+          <t>20180101</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20170630</t>
+          <t>20231231</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -28612,7 +28612,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>uadb_windc_59431.txt</t>
+          <t>uadb_windc_71203.txt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -28622,7 +28622,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0-20666-0-59431</t>
+          <t>0-20666-0-71115</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>59431</t>
+          <t>71115</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -28672,12 +28672,12 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19720214</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>20231230</t>
+          <t>20170630</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -28802,17 +28802,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>uadb_trhc_59431.txt</t>
+          <t>uadb_trhc_25400.txt</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0-20666-0-59431</t>
+          <t>0-20777-0-25400</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>59431</t>
+          <t>25400</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -28853,8 +28853,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>[150.9, 150.9]</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>[67.53, 65.73]</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -28862,12 +28870,12 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19630409</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>20231230</t>
+          <t>20181031</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -28992,7 +29000,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>uadb_windc_62378.txt</t>
+          <t>uadb_trhc_71203.txt</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -29002,7 +29010,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0-20666-0-62366</t>
+          <t>0-20666-0-71115</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -29015,7 +29023,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>62366</t>
+          <t>71115</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -29052,12 +29060,12 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>19490325</t>
+          <t>19720214</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>20231230</t>
+          <t>20170630</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -29182,7 +29190,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>uadb_windc_30554.txt</t>
+          <t>uadb_windc_62378.txt</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -29192,7 +29200,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0-20666-0-30554</t>
+          <t>0-20666-0-62366</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -29205,7 +29213,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30554</t>
+          <t>62366</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -29242,12 +29250,12 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>19500112</t>
+          <t>19490325</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>20181030</t>
+          <t>20231230</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -29372,17 +29380,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>uadb_trhc_25400.txt</t>
+          <t>uadb_windc_10200.txt</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0-20777-0-25400</t>
+          <t>0-20666-0-10200</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -29395,7 +29403,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25400</t>
+          <t>10200</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -29423,16 +29431,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>[150.9, 150.9]</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>[67.53, 65.73]</t>
-        </is>
-      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -29440,12 +29440,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>19630409</t>
+          <t>19520427</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>20181031</t>
+          <t>20110831</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -29570,7 +29570,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>uadb_windc_10200.txt</t>
+          <t>uadb_windc_30554.txt</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0-20666-0-10200</t>
+          <t>0-20666-0-30554</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -29593,7 +29593,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10200</t>
+          <t>30554</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -29630,12 +29630,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>19520427</t>
+          <t>19500112</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>20110831</t>
+          <t>20181030</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -29760,17 +29760,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>uadb_trhc_10200.txt</t>
+          <t>uadb_windc_25400.txt</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>COORDINATE_ISSUES</t>
+          <t>MATCHING_ID_NONMATCHING_COORD</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0-20666-0-10200</t>
+          <t>0-20777-0-25400</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>10200</t>
+          <t>25400</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -29811,8 +29811,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>[150.9, 150.9]</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>[67.53, 65.73]</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -29820,12 +29828,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>19520427</t>
+          <t>19540702</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>20110831</t>
+          <t>20181031</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -29950,17 +29958,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>uadb_trhc_97014.txt</t>
+          <t>uadb_trhc_10200.txt</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
+          <t>COORDINATE_ISSUES</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0-20777-0-97014</t>
+          <t>0-20666-0-10200</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -29973,7 +29981,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>97014</t>
+          <t>10200</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -30001,16 +30009,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>[122.92, 122.92]</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>[1.53, 1.53]</t>
-        </is>
-      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -30018,12 +30018,12 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>20180101</t>
+          <t>19520427</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>20231231</t>
+          <t>20110831</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -30327,204 +30327,6 @@
         </is>
       </c>
       <c r="AN154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>uadb_windc_25400.txt</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>MATCHING_ID_NONMATCHING_COORD</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0-20777-0-25400</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>154</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>25400</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>[150.9, 150.9]</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>[67.53, 65.73]</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>19540702</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>20181031</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF155" t="inlineStr">
-        <is>
-          <t>['38', '85', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN155" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
